--- a/public/AbsenceData/template-import-ketidakhadiran-semua-lokasi import absen.xlsx
+++ b/public/AbsenceData/template-import-ketidakhadiran-semua-lokasi import absen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B6886-C464-4B2C-8D33-90429B213AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BA567-6D99-4C80-A900-00AC937661B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="600" windowWidth="12252" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Tanggal</t>
   </si>
@@ -52,70 +52,40 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
     <t>2024-12-27</t>
   </si>
   <si>
-    <t>Andi Susanto</t>
-  </si>
-  <si>
-    <t>Ekanuri</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
-    <t>KJ5</t>
-  </si>
-  <si>
-    <t>Irnanto Purna Yudha</t>
-  </si>
-  <si>
-    <t>KJ-5-190</t>
-  </si>
-  <si>
-    <t>2024-12-24</t>
-  </si>
-  <si>
     <t>2024-12-26</t>
   </si>
   <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
     <t>2025-01-13</t>
   </si>
   <si>
-    <t>2024-12-23</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-01-14</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
     <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>Muhamad Fachrurrozi</t>
+  </si>
+  <si>
+    <t>KJ-6-272</t>
+  </si>
+  <si>
+    <t>EN Anugrah</t>
+  </si>
+  <si>
+    <t>KJ1-2</t>
   </si>
 </sst>
 </file>
@@ -488,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,22 +507,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>10070</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -563,22 +533,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>10070</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
@@ -589,22 +559,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>10070</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
@@ -615,22 +585,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>10070</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
@@ -641,22 +611,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>10070</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
@@ -667,22 +637,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>10070</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
@@ -693,22 +663,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>10070</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
@@ -718,438 +688,48 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>10070</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>90</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="G34" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
